--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,12 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -55,70 +55,64 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>hand</t>
   </si>
   <si>
     <t>relief</t>
@@ -127,22 +121,34 @@
     <t>like</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -500,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,10 +514,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -572,10 +578,10 @@
         <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -587,19 +593,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -619,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.88</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -637,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -669,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7207792207792207</v>
+        <v>0.5787671232876712</v>
       </c>
       <c r="C5">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="D5">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -711,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -719,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3605150214592275</v>
+        <v>0.2228682170542636</v>
       </c>
       <c r="C6">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="D6">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -737,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>149</v>
+        <v>401</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -761,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -769,13 +775,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.313953488372093</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -787,69 +793,45 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L7">
+        <v>32</v>
+      </c>
+      <c r="M7">
+        <v>32</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K7">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L7">
-        <v>45</v>
-      </c>
-      <c r="M7">
-        <v>45</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.2375</v>
-      </c>
-      <c r="C8">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>61</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -861,21 +843,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.8125</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -887,21 +869,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -913,21 +895,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8235294117647058</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="M11">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -939,21 +921,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L12">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="M12">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -965,21 +947,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -991,21 +973,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.725</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1017,21 +999,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7647058823529411</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1043,21 +1025,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7435897435897436</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1069,21 +1051,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6818181818181818</v>
+        <v>0.69375</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1095,21 +1077,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.68</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1121,47 +1103,47 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6551724137931034</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L19">
+        <v>29</v>
+      </c>
+      <c r="M19">
+        <v>29</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>19</v>
-      </c>
-      <c r="M19">
-        <v>19</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>10</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6363636363636364</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1173,21 +1155,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6164383561643836</v>
+        <v>0.5404699738903395</v>
       </c>
       <c r="L21">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="M21">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1199,21 +1181,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5833333333333334</v>
+        <v>0.54</v>
       </c>
       <c r="L22">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1225,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1251,21 +1233,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5555555555555556</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L24">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="M24">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1277,21 +1259,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5258215962441315</v>
+        <v>0.4309623430962343</v>
       </c>
       <c r="L25">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M25">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1303,21 +1285,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>101</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5193798449612403</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L26">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1329,21 +1311,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.4891304347826087</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L27">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1355,21 +1337,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4666666666666667</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="M28">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1381,21 +1363,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.4571428571428571</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1407,33 +1389,111 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30">
+        <v>0.05145413870246085</v>
+      </c>
+      <c r="L30">
+        <v>46</v>
+      </c>
+      <c r="M30">
+        <v>46</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K30">
-        <v>0.05121951219512195</v>
-      </c>
-      <c r="L30">
-        <v>21</v>
-      </c>
-      <c r="M30">
-        <v>21</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>389</v>
+      <c r="K31">
+        <v>0.02996670366259711</v>
+      </c>
+      <c r="L31">
+        <v>27</v>
+      </c>
+      <c r="M31">
+        <v>27</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32">
+        <v>0.01289490651192779</v>
+      </c>
+      <c r="L32">
+        <v>40</v>
+      </c>
+      <c r="M32">
+        <v>45</v>
+      </c>
+      <c r="N32">
+        <v>0.89</v>
+      </c>
+      <c r="O32">
+        <v>0.11</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33">
+        <v>0.01261682242990654</v>
+      </c>
+      <c r="L33">
+        <v>27</v>
+      </c>
+      <c r="M33">
+        <v>30</v>
+      </c>
+      <c r="N33">
+        <v>0.9</v>
+      </c>
+      <c r="O33">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>2113</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,79 +43,79 @@
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>good</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>help</t>
   </si>
   <si>
     <t>like</t>
@@ -124,31 +124,28 @@
     <t>care</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
 </sst>
 </file>
@@ -514,10 +511,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -575,13 +572,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -593,19 +590,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -617,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -625,13 +622,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6944444444444444</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,19 +640,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -667,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -675,13 +672,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5787671232876712</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="C5">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -693,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
         <v>0.9322033898305084</v>
@@ -725,13 +722,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2228682170542636</v>
+        <v>0.2073643410852713</v>
       </c>
       <c r="C6">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D6">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -743,69 +740,45 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L6">
+        <v>97</v>
+      </c>
+      <c r="M6">
+        <v>97</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="L6">
-        <v>100</v>
-      </c>
-      <c r="M6">
-        <v>100</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.2116402116402116</v>
-      </c>
-      <c r="C7">
-        <v>40</v>
-      </c>
-      <c r="D7">
-        <v>40</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>149</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -817,21 +790,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8292682926829268</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -843,12 +816,12 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
         <v>0.8125</v>
@@ -874,16 +847,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7826086956521739</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -895,21 +868,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7758620689655172</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -921,21 +894,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7323943661971831</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L12">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M12">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -947,21 +920,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7264150943396226</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L13">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -973,21 +946,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.725</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L14">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="M14">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -999,21 +972,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7222222222222222</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1025,21 +998,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7058823529411765</v>
+        <v>0.65625</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1051,21 +1024,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.69375</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L17">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1077,21 +1050,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6507936507936508</v>
+        <v>0.62</v>
       </c>
       <c r="L18">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1103,21 +1076,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6041666666666666</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1129,21 +1102,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.574468085106383</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L20">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1155,21 +1128,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5404699738903395</v>
+        <v>0.5378590078328982</v>
       </c>
       <c r="L21">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M21">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1181,21 +1154,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.54</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1212,16 +1185,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0.4677966101694915</v>
       </c>
       <c r="L23">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="M23">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1233,21 +1206,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4943820224719101</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="L24">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="M24">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1259,21 +1232,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>45</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4309623430962343</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L25">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1285,21 +1258,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>136</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4307692307692308</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1311,47 +1284,47 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27">
+        <v>0.40625</v>
+      </c>
+      <c r="L27">
+        <v>26</v>
+      </c>
+      <c r="M27">
+        <v>26</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>38</v>
-      </c>
-      <c r="K27">
-        <v>0.4246575342465753</v>
-      </c>
-      <c r="L27">
-        <v>31</v>
-      </c>
-      <c r="M27">
-        <v>31</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>42</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.423728813559322</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L28">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1363,21 +1336,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>170</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.4102564102564102</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1389,21 +1362,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>46</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.05145413870246085</v>
+        <v>0.03914988814317674</v>
       </c>
       <c r="L30">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M30">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1415,85 +1388,85 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>848</v>
+        <v>859</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>0.02996670366259711</v>
+        <v>0.03555555555555556</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>874</v>
+        <v>868</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>0.01289490651192779</v>
+        <v>0.01778193729527375</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N32">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="O32">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>3062</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>0.01261682242990654</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N33">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O33">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>2113</v>
+        <v>3075</v>
       </c>
     </row>
   </sheetData>
